--- a/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Pujoulx/Jean-Baptiste_Pujoulx.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Pujoulx/Jean-Baptiste_Pujoulx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste Pujoulx, né à Saint-Macaire le 30 juin 1762[1] et mort le 17 avril 1821 à Paris[2], est un compilateur-naturaliste, journaliste et dramaturge français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste Pujoulx, né à Saint-Macaire le 30 juin 1762 et mort le 17 avril 1821 à Paris, est un compilateur-naturaliste, journaliste et dramaturge français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pujoulx se fit d’abord connaître par des articles de journaux, qui annonçaient du goût, de la facilité et des connaissances : il concourut successivement à la rédaction du Journal de la littérature française et étrangère, imprimé à Deux-Ponts, à la Gazette de France, au Journal de Paris, et au Journal de l’Empire, et composa pour différents théâtres, une foule de pièces, dont plusieurs obtinrent un succès mérité.
 Outre un grand nombre d’ouvrages sur la botanique, l’histoire naturelle, la physique, il a publié plusieurs comédies et opéras, qui ont eu peu de succès. Les principales sont : Le Souper de famille, ou les Dangers de l’absence, comédie en deux actes et en prose, 1788 ; l’auteur l’a mise en opéra sous le titre du Rendez-vous supposé ; L’École des parvenus, comédie en un acte, mêlée de couplets : c’est la suite des Deux Petits Savoyards ; La Veuve Calas à Paris, comédie en un acte, mise en opéra et jouée sous le titre d’Une matinée de Voltaire, 1799 ; Les Modernes enrichis, comédie en cinq actes et en vers libres, 1798 ; Les Noms supposés, opéra-comique en deux actes, 1798 ; L’Anti-Célibataire, ou Les Mariages, comédie en cinq actes et en vers, 1805.
@@ -545,10 +559,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Biographie universelle : ou Dictionnaire de tous les hommes qui se sont fait remarquer par leurs écrits, leurs actions, leurs talents, leurs vertus ou leurs crimes, depuis le commencement du monde jusqu’à ce jour, t. 16, Bruxelles, H. Ode, 1846, 360 p. (lire en ligne), p. 112.
-Jacques-Alphonse Mahul, Annuaire nécrologique, ou Supplément annuel et continuation de toutes les biographies ou dictionnaires historiques, 2e année, 1821, Paris : Ponthieu, 1822, p.239-246 [1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biographie universelle : ou Dictionnaire de tous les hommes qui se sont fait remarquer par leurs écrits, leurs actions, leurs talents, leurs vertus ou leurs crimes, depuis le commencement du monde jusqu’à ce jour, t. 16, Bruxelles, H. Ode, 1846, 360 p. (lire en ligne), p. 112.
+Jacques-Alphonse Mahul, Annuaire nécrologique, ou Supplément annuel et continuation de toutes les biographies ou dictionnaires historiques, 2e année, 1821, Paris : Ponthieu, 1822, p.239-246 </t>
         </is>
       </c>
     </row>
